--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_4_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_4_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14087.52353682104</v>
+        <v>845251.4122092625</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14087.52353682104</v>
+        <v>845251.4122092625</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035236641.129392</v>
+        <v>41462358.62829636</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9430.443764934593</v>
+        <v>918030.5296017115</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18468.21710785574</v>
+        <v>1768110.031826213</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27505.99045077688</v>
+        <v>2618189.534050715</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37486.35150171874</v>
+        <v>3417195.093424843</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47466.71255266057</v>
+        <v>4216200.652798972</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56604.31330045852</v>
+        <v>5066280.155023472</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65741.91404825647</v>
+        <v>5916359.65724797</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74879.51479605441</v>
+        <v>6766439.159472468</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84859.87584699631</v>
+        <v>7565444.718846592</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94061.81343531473</v>
+        <v>8403754.987083586</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103199.4141831127</v>
+        <v>9253834.489308089</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112337.0149309106</v>
+        <v>10103913.9915326</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121474.6156787085</v>
+        <v>10953993.4937571</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130680.1358078406</v>
+        <v>11791920.12007411</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140660.4968587824</v>
+        <v>12590925.67944824</v>
       </c>
     </row>
   </sheetData>
